--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magister\JADWAL\Semester1\DI\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32C657D-29E6-4E22-86C9-98E6818C240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADF0C40-69D7-4CFD-9501-9CCF255CAE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94ADC694-FA29-4AA1-AD7F-6BFB9B3524C2}"/>
   </bookViews>
@@ -7223,7 +7223,7 @@
   <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
